--- a/elim/src/main/resources/excelTemplates/MonthSalaryReport.xlsx
+++ b/elim/src/main/resources/excelTemplates/MonthSalaryReport.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\elim\elim\src\main\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFEB7F6-6C67-401E-A363-24872CA47C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF476EE-7633-4A3E-8E4F-6B235BC58566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A446F207-523A-4631-96D1-2B2FDCFD7A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,12 +74,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="L8")</t>
+jx:area(lastCell="L20")</t>
         </r>
       </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{7D5C14F3-9C47-4662-AE89-28989BE40D55}">
-      <text/>
     </comment>
     <comment ref="A8" authorId="1" shapeId="0" xr:uid="{9838F5D9-6217-4872-95BC-98A737336682}">
       <text>
@@ -109,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +222,119 @@
   </si>
   <si>
     <t>${sDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sum.extraCash}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sum.fare}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sum.finalOrder}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sum.tip}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sum.taxes}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sum.reimbursement}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sum.driverShare}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業淨利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公帳支出</t>
+  </si>
+  <si>
+    <t>總結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月可分帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sum.total01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪水總額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外收現金</t>
+  </si>
+  <si>
+    <t>${sum.extraCash}</t>
+  </si>
+  <si>
+    <t>勞退金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勞健保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sum.total02}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司機應得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>額外支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期分帳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餘額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEL：(02)8866-2175    2834-6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX：(02)2835-7195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司帳號：157-001-0006109-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼：807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行：永豐銀行~蘭雅分行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶名：以琳通運有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,14 +357,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -297,6 +400,14 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,42 +474,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,119 +851,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2251AF-9A8B-4EFB-A65A-271596C637B7}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A17:A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="10" width="15.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -855,4 +1166,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC0F96E-7053-49A2-B65A-FC14255657A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/elim/src/main/resources/excelTemplates/MonthSalaryReport.xlsx
+++ b/elim/src/main/resources/excelTemplates/MonthSalaryReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\elim\elim\src\main\resources\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF476EE-7633-4A3E-8E4F-6B235BC58566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C51BD-5EAE-4C0C-A51A-DAD7C1971731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A446F207-523A-4631-96D1-2B2FDCFD7A2A}"/>
   </bookViews>
@@ -74,7 +74,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="L20")</t>
+jx:area(lastCell="L21")</t>
         </r>
       </text>
     </comment>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>外收現金</t>
-  </si>
-  <si>
-    <t>${sum.extraCash}</t>
   </si>
   <si>
     <t>勞退金</t>
@@ -474,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +513,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,7 +854,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A17:A18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -937,7 +937,7 @@
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1044,7 +1044,7 @@
         <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1054,7 +1054,7 @@
       <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -1070,7 +1070,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>42</v>
@@ -1082,10 +1082,10 @@
         <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>39</v>
@@ -1095,69 +1095,69 @@
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>44</v>
+      <c r="F17" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
